--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/Trent Boult .xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/Trent Boult .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,21 +413,27 @@
         <v>result</v>
       </c>
       <c r="D1" t="str">
+        <v>ownTeam</v>
+      </c>
+      <c r="E1" t="str">
+        <v>oppTeam</v>
+      </c>
+      <c r="F1" t="str">
         <v>batsman</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>totalRuns</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>totalBalls</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>total4s</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>total6s</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>sr</v>
       </c>
     </row>
@@ -442,27 +448,33 @@
         <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
       </c>
       <c r="D2" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F2" t="str">
         <v xml:space="preserve">Trent Boult </v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1</v>
       </c>
       <c r="G2" t="str">
         <v>0</v>
       </c>
       <c r="H2" t="str">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
         <v>0.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/Trent Boult .xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/Trent Boult .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,9 +472,44 @@
         <v>0.00</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="B3" t="str">
+        <v xml:space="preserve"> September 19 2020</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve">Trent Boult </v>
+      </c>
+      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>